--- a/Experiments/Measurements/Single Banner Vertical/S path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/S path/Antenna_1/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>170.9855097359612</v>
+        <v>170.9855097359615</v>
       </c>
       <c r="H2" t="n">
-        <v>72.54796536984909</v>
+        <v>72.54796536984911</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>151.1673829822011</v>
+        <v>151.1673829822013</v>
       </c>
       <c r="H3" t="n">
-        <v>74.14646302620125</v>
+        <v>74.14646302620135</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>131.1725421900152</v>
+        <v>131.1725421900154</v>
       </c>
       <c r="H4" t="n">
-        <v>75.92296247080084</v>
+        <v>75.92296247080094</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>111.2797190149932</v>
       </c>
       <c r="H5" t="n">
-        <v>77.62520229823612</v>
+        <v>77.62520229823603</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>110.404855966982</v>
       </c>
       <c r="H6" t="n">
-        <v>72.42744451545636</v>
+        <v>72.42744451545626</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>160.0352489660982</v>
+        <v>160.0352489660985</v>
       </c>
       <c r="H7" t="n">
-        <v>70.67328586845123</v>
+        <v>70.67328586845122</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>171.0180964092122</v>
+        <v>171.0180964092124</v>
       </c>
       <c r="H8" t="n">
         <v>67.72737226529945</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>151.020008999688</v>
+        <v>151.0200089996882</v>
       </c>
       <c r="H9" t="n">
-        <v>69.57058137126278</v>
+        <v>69.57058137126288</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>131.1868662277572</v>
+        <v>131.1868662277574</v>
       </c>
       <c r="H10" t="n">
-        <v>71.30970101794983</v>
+        <v>71.30970101794993</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>111.2908425175012</v>
+        <v>111.2908425175013</v>
       </c>
       <c r="H11" t="n">
-        <v>73.09287302118067</v>
+        <v>73.09287302118057</v>
       </c>
     </row>
     <row r="12">
@@ -802,7 +802,7 @@
         <v>111.3104647779674</v>
       </c>
       <c r="H12" t="n">
-        <v>82.92627940560398</v>
+        <v>82.92627940560389</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>170.8985168936294</v>
+        <v>170.8985168936296</v>
       </c>
       <c r="H13" t="n">
         <v>78.27297595315609</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>171.0096743313867</v>
+        <v>171.0096743313869</v>
       </c>
       <c r="H14" t="n">
         <v>94.31972172003059</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>145.1422698043178</v>
+        <v>145.142269804318</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3875223140136</v>
+        <v>104.3875223140137</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>122.5735941883298</v>
+        <v>122.57359418833</v>
       </c>
       <c r="H16" t="n">
-        <v>107.602757595658</v>
+        <v>107.6027575956581</v>
       </c>
     </row>
     <row r="17">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>102.5826024458198</v>
+        <v>102.5826024458199</v>
       </c>
       <c r="H17" t="n">
         <v>107.369042726416</v>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>99.33259391672706</v>
+        <v>99.33259391672713</v>
       </c>
       <c r="H18" t="n">
-        <v>127.3266964788226</v>
+        <v>127.3266964788225</v>
       </c>
     </row>
     <row r="19">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>170.885359604447</v>
+        <v>170.8853596044472</v>
       </c>
       <c r="H19" t="n">
         <v>113.778680095701</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>61.81652402685293</v>
+        <v>61.81652402685314</v>
       </c>
       <c r="H20" t="n">
-        <v>151.8176961533955</v>
+        <v>151.8176961533954</v>
       </c>
     </row>
     <row r="21">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>128.7379982994353</v>
+        <v>128.7379982994355</v>
       </c>
       <c r="H21" t="n">
         <v>143.9182696413943</v>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>101.783426796796</v>
+        <v>101.7834267967962</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8747811791172</v>
+        <v>159.8747811791173</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>40.74520627503799</v>
+        <v>40.74520627503808</v>
       </c>
       <c r="H23" t="n">
-        <v>170.102209535247</v>
+        <v>170.1022095352469</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>123.4424982391163</v>
+        <v>123.4424982391159</v>
       </c>
       <c r="H24" t="n">
-        <v>115.251630900364</v>
+        <v>115.2516309003639</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>137.4166625471611</v>
+        <v>137.4166625471613</v>
       </c>
       <c r="H25" t="n">
-        <v>76.76069308403045</v>
+        <v>76.76069308403054</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>157.8507935064481</v>
+        <v>157.8507935064483</v>
       </c>
       <c r="H26" t="n">
-        <v>67.30506449383893</v>
+        <v>67.30506449383903</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>141.1080427144518</v>
+        <v>141.108042714452</v>
       </c>
       <c r="H29" t="n">
-        <v>75.68426350136998</v>
+        <v>75.68426350137007</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>141.0667322279466</v>
+        <v>141.0667322279468</v>
       </c>
       <c r="H30" t="n">
-        <v>89.56202873185734</v>
+        <v>89.56202873185744</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>161.0421105954494</v>
+        <v>161.0421105954496</v>
       </c>
       <c r="H31" t="n">
-        <v>69.6738833912967</v>
+        <v>69.67388339129678</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>126.2266203635857</v>
+        <v>126.2266203635853</v>
       </c>
       <c r="H33" t="n">
-        <v>69.4395194060493</v>
+        <v>69.43951940604909</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>126.1743446003087</v>
+        <v>126.1743446003083</v>
       </c>
       <c r="H34" t="n">
-        <v>87.45999268680902</v>
+        <v>87.45999268680883</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>157.6682233736006</v>
+        <v>157.6682233736008</v>
       </c>
       <c r="H36" t="n">
-        <v>89.02590660023441</v>
+        <v>89.02590660023452</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>126.1748881365004</v>
+        <v>126.1748881365</v>
       </c>
       <c r="H37" t="n">
-        <v>76.99976670392778</v>
+        <v>76.99976670392759</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>141.118764353803</v>
+        <v>141.1187643538032</v>
       </c>
       <c r="H39" t="n">
-        <v>70.10688650091886</v>
+        <v>70.10688650091896</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50.65881623720696</v>
+        <v>50.658816237207</v>
       </c>
       <c r="H40" t="n">
-        <v>171.2567466921811</v>
+        <v>171.2567466921809</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>141.0862779633949</v>
+        <v>141.0862779633951</v>
       </c>
       <c r="H42" t="n">
-        <v>68.15311344771396</v>
+        <v>68.15311344771406</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>52.9064436413728</v>
+        <v>52.90644364137235</v>
       </c>
       <c r="H44" t="n">
-        <v>167.8852134214829</v>
+        <v>167.8852134214828</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>141.1691067522907</v>
+        <v>141.1691067522909</v>
       </c>
       <c r="H47" t="n">
-        <v>103.6202124287078</v>
+        <v>103.6202124287079</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>160.9417941016968</v>
+        <v>160.941794101697</v>
       </c>
       <c r="H49" t="n">
-        <v>71.92833926508416</v>
+        <v>71.92833926508426</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>91.76852117204089</v>
+        <v>91.76852117204055</v>
       </c>
       <c r="H50" t="n">
-        <v>166.2524160995961</v>
+        <v>166.2524160995959</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>111.2535007555881</v>
+        <v>111.2535007555882</v>
       </c>
       <c r="H51" t="n">
-        <v>173.7043147426446</v>
+        <v>173.7043147426447</v>
       </c>
     </row>
   </sheetData>
